--- a/dictionnaire-donnes-abc-cooperation.xlsx
+++ b/dictionnaire-donnes-abc-cooperation.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formation_Simplon\developpement_web\evaluation_competences_projet\Brief-5\project-abc-cooperation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00AF2B6-0C1C-427D-93BB-861371C48608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="customers" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="products" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="purchase_orders" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="order_details" sheetId="4" r:id="rId7"/>
+    <sheet name="customers" sheetId="1" r:id="rId1"/>
+    <sheet name="products" sheetId="2" r:id="rId2"/>
+    <sheet name="purchase_orders" sheetId="3" r:id="rId3"/>
+    <sheet name="order_details" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
   <si>
     <t>Entité : Customer</t>
   </si>
@@ -82,35 +91,6 @@
     <t>Texte</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF0563C1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>Mamadou</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF0563C1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve"> Sy</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>,  John Mark</t>
-    </r>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -135,9 +115,6 @@
     <t>Format email valide</t>
   </si>
   <si>
-    <t>customer B@example.com</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -165,9 +142,6 @@
     <t>products</t>
   </si>
   <si>
-    <t>name_product</t>
-  </si>
-  <si>
     <t>Nom d'un produit</t>
   </si>
   <si>
@@ -277,47 +251,70 @@
   </si>
   <si>
     <t xml:space="preserve">Prix  unitaire d'un  produit et commande </t>
+  </si>
+  <si>
+    <t>Mamadou Sy,  John Mark</t>
+  </si>
+  <si>
+    <t>customerB@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF0563C1"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -325,7 +322,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -352,187 +349,1194 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
-    <border/>
+  <borders count="8">
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF9BC2E6"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF9BC2E6"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF9BC2E6"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF9BC2E6"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF9BC2E6"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF9BC2E6"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFA5A5A5"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFA5A5A5"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFA5A5A5"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFA5A5A5"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF9BC2E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B9BD5"/>
+          <bgColor rgb="FF5B9BD5"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFA5A5A5"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA5A5A5"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF9BC2E6"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF9BC2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B9BD5"/>
+          <bgColor rgb="FF5B9BD5"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFA5A5A5"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA5A5A5"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEDEDED"/>
+          <bgColor rgb="FFEDEDED"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFA5A5A5"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEDEDED"/>
+          <bgColor rgb="FFEDEDED"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFA5A5A5"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEDEDED"/>
+          <bgColor rgb="FFEDEDED"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFA5A5A5"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEDEDED"/>
+          <bgColor rgb="FFEDEDED"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEDEDED"/>
+          <bgColor rgb="FFEDEDED"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEDEDED"/>
+          <bgColor rgb="FFEDEDED"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEDEDED"/>
+          <bgColor rgb="FFEDEDED"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF9BC2E6"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF9BC2E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEDEDED"/>
+          <bgColor rgb="FFEDEDED"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B9BD5"/>
+          <bgColor rgb="FF5B9BD5"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFA5A5A5"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA5A5A5"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFA5A5A5"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF9BC2E6"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF9BC2E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B9BD5"/>
+          <bgColor rgb="FF5B9BD5"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFA5A5A5"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA5A5A5"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{27B866D2-30C8-4B49-ACC1-5B97DBBEE575}" name="Tableau5" displayName="Tableau5" ref="B3:I8" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="B3:I8" xr:uid="{27B866D2-30C8-4B49-ACC1-5B97DBBEE575}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{481191A5-38C7-4170-84EE-823EB1B8131D}" name="Nom du Champ" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{FCA689D0-4C50-405C-AB8B-06D70EEA4C7D}" name="Description" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00CD089E-E98F-4736-9C25-AAC73C51B383}" name="Type de données"/>
+    <tableColumn id="4" xr3:uid="{D7C536B9-1C62-4EDC-B9CD-815D8D85F31E}" name="Contraintes" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{C70C6331-7FF4-4DBE-BFA0-848897A45C5B}" name="Valeur possible" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{76888015-FE71-4F2B-9702-06297E10D219}" name="Valeur par defaut"/>
+    <tableColumn id="7" xr3:uid="{1C42DDA8-3F6E-4ABA-B3F8-E1E0F0301FD8}" name="Exemple de valeur"/>
+    <tableColumn id="8" xr3:uid="{B373A170-E365-4C22-94A8-1530E03643FD}" name="Table" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{24891C77-48D9-48AB-A9A4-DF035E86C9E1}" name="Tableau4" displayName="Tableau4" ref="B4:I9" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
+  <autoFilter ref="B4:I9" xr:uid="{24891C77-48D9-48AB-A9A4-DF035E86C9E1}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{60DBC731-5B98-4018-8527-4D0810FC2692}" name="Nom du Champ" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{B74B4E11-3991-4B87-943D-85FC8876E48B}" name="Description" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{6A6E6201-3B19-4822-9DE7-45FEA11FDF90}" name="Type de données" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{3ACE452F-3C62-4CF3-9405-DE318C6EF3D9}" name="Contraintes" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{7D087453-112A-473D-ABBD-76253D126F32}" name="Valeur possible" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{AF691041-B545-4A76-BA6B-D48F16AC2FB5}" name="Valeur par defaut" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{324E7C04-10AD-4DEB-87F4-E348D9E60162}" name="Exemple de valeur" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{8A3C062F-C999-47C9-9EBB-57BB553315AD}" name="Table" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B9C2555-129B-45CE-ADD9-C5C223867F57}" name="Tableau3" displayName="Tableau3" ref="B4:I8" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="B4:I8" xr:uid="{6B9C2555-129B-45CE-ADD9-C5C223867F57}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{8BB3FCF3-3C34-4E74-A2BF-204183EF435E}" name="Nom du Champ" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{0EF864DB-A7FB-4713-BCFF-288C12D2C67E}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{A7F02C3B-B4F5-4967-A6AC-56E277578B32}" name="Type de données"/>
+    <tableColumn id="4" xr3:uid="{A39F32F5-20F8-41B1-B003-E5189010E028}" name="Contraintes"/>
+    <tableColumn id="5" xr3:uid="{9A94FCDD-D94E-42E3-8252-41A4D7C79B70}" name="Valeur possible"/>
+    <tableColumn id="6" xr3:uid="{DD092F92-A8A8-400A-BE89-D9A56073D0BA}" name="Valeur par defaut"/>
+    <tableColumn id="7" xr3:uid="{0D6DE98D-C8F7-42C4-A1F3-80553BB95A2A}" name="Exemple de valeur"/>
+    <tableColumn id="8" xr3:uid="{7747291C-E8D8-4634-A1EF-3A2C072471CA}" name="Table" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3886FB58-7782-440F-9EC8-0F9E9855E373}" name="Tableau2" displayName="Tableau2" ref="B4:I9" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="B4:I9" xr:uid="{3886FB58-7782-440F-9EC8-0F9E9855E373}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0FD2C003-D220-400C-BCD9-E50B09E48B35}" name="Nom du Champ" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{E68BCF73-7BF2-46ED-B41E-AC4466704B98}" name="Description" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{829011FA-FAFE-4DF3-AA37-7363E1863FEA}" name="Type de données" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C8B78EDE-BDB6-4E5A-8759-0D53EA0AEDC1}" name="Contraintes" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{0B705EF6-926E-44C0-9282-AEFEC64DA649}" name="Valeur possible" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{A1F5F28F-76AA-495A-A720-01177FF0E0B4}" name="Valeur par defaut" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{1F3AF5A4-355C-454D-8981-7BFCAA0D6EE9}" name="Exemple de valeur" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{388A2C40-7B03-44C7-8FF6-A5E9A9B3E46B}" name="Table" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -722,41 +1726,47 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="27.13"/>
-    <col customWidth="1" min="4" max="4" width="23.25"/>
-    <col customWidth="1" min="5" max="5" width="20.5"/>
-    <col customWidth="1" min="6" max="6" width="25.38"/>
-    <col customWidth="1" min="7" max="7" width="20.13"/>
-    <col customWidth="1" min="8" max="8" width="32.63"/>
-    <col customWidth="1" min="9" max="9" width="19.88"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+    <row r="2" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -778,181 +1788,188 @@
       <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="C6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="12" t="s">
+    <row r="7" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="H7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="9" t="s">
+    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="H8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H5"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{8FD89219-42DC-4D4C-8548-598082F39CC2}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B3:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.25"/>
-    <col customWidth="1" min="3" max="3" width="25.75"/>
-    <col customWidth="1" min="4" max="4" width="21.5"/>
-    <col customWidth="1" min="5" max="5" width="22.88"/>
-    <col customWidth="1" min="6" max="6" width="24.63"/>
-    <col customWidth="1" min="7" max="7" width="16.13"/>
-    <col customWidth="1" min="8" max="8" width="45.0"/>
-    <col customWidth="1" min="9" max="9" width="12.5"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4">
+    <row r="3" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -974,170 +1991,176 @@
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="E8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="H8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>40</v>
+      <c r="I9" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B3:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.88"/>
-    <col customWidth="1" min="3" max="3" width="72.75"/>
-    <col customWidth="1" min="4" max="4" width="21.0"/>
-    <col customWidth="1" min="5" max="5" width="19.75"/>
-    <col customWidth="1" min="6" max="6" width="21.88"/>
-    <col customWidth="1" min="7" max="7" width="18.25"/>
-    <col customWidth="1" min="8" max="8" width="25.13"/>
-    <col customWidth="1" min="9" max="9" width="19.88"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="92.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="2:9" ht="15.75" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="22" t="s">
-        <v>58</v>
+      <c r="D3" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
@@ -1145,7 +2168,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="2:9" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1167,151 +2190,158 @@
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="21" t="s">
+      <c r="E6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="G6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="18">
+        <v>45394</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="C7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="I7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="23">
-        <v>45394.0</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>59</v>
+      <c r="H8" s="20">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B3:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="74.25"/>
-    <col customWidth="1" min="4" max="4" width="21.63"/>
-    <col customWidth="1" min="5" max="5" width="22.75"/>
-    <col customWidth="1" min="6" max="6" width="21.63"/>
-    <col customWidth="1" min="7" max="7" width="17.0"/>
-    <col customWidth="1" min="8" max="8" width="17.63"/>
-    <col customWidth="1" min="9" max="9" width="24.38"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="74.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4">
+    <row r="3" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1333,141 +2363,144 @@
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="E6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="H6" s="23">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B7" s="29" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="27" t="s">
+      <c r="C7" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="24">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B8" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="C8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="F8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="29">
-        <v>25.0</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="27" t="s">
+      <c r="H8" s="24">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="27" t="s">
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="30">
-        <v>10.0</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="20">
-        <v>12000.0</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>71</v>
+      <c r="H9" s="15">
+        <v>12000</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/dictionnaire-donnes-abc-cooperation.xlsx
+++ b/dictionnaire-donnes-abc-cooperation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formation_Simplon\developpement_web\evaluation_competences_projet\Brief-5\project-abc-cooperation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00AF2B6-0C1C-427D-93BB-861371C48608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB3BF3-D8B2-4683-9769-1B6507E4910A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customers" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
   <si>
-    <t>Entité : Customer</t>
-  </si>
-  <si>
     <t>Nom du Champ</t>
   </si>
   <si>
@@ -61,33 +58,21 @@
     <t>Integrer</t>
   </si>
   <si>
-    <t>Clé primaire, non null</t>
-  </si>
-  <si>
     <t>Généré automatiquement</t>
   </si>
   <si>
-    <t>Null</t>
-  </si>
-  <si>
     <t>1,2,3,etc.</t>
   </si>
   <si>
     <t>customers</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>Nom d'un client</t>
   </si>
   <si>
     <t>Varchar(50)</t>
   </si>
   <si>
-    <t>non null</t>
-  </si>
-  <si>
     <t>Texte</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t>Addresse email d'un client</t>
   </si>
   <si>
-    <t>unique et non null</t>
-  </si>
-  <si>
     <t>Format email valide</t>
   </si>
   <si>
@@ -124,18 +106,12 @@
     <t>varchar(15)</t>
   </si>
   <si>
-    <t>unique, non null</t>
-  </si>
-  <si>
     <t>texte</t>
   </si>
   <si>
     <t>345-678-9012</t>
   </si>
   <si>
-    <t>Entité : Product</t>
-  </si>
-  <si>
     <t>Identifiant unique du commande</t>
   </si>
   <si>
@@ -145,9 +121,6 @@
     <t>Nom d'un produit</t>
   </si>
   <si>
-    <t>non nul</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lait</t>
   </si>
   <si>
@@ -190,12 +163,6 @@
     <t>120.00</t>
   </si>
   <si>
-    <t>Entité : Purchase_order</t>
-  </si>
-  <si>
-    <t>purchase_orders</t>
-  </si>
-  <si>
     <t>order_date</t>
   </si>
   <si>
@@ -223,15 +190,9 @@
     <t>Une clé étrangére qui établit un lien entre deux tables, customers associé au purchase_orders</t>
   </si>
   <si>
-    <t>Entite : order_detail</t>
-  </si>
-  <si>
     <t>Identifiant unique details de la commande</t>
   </si>
   <si>
-    <t>order_details</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -253,10 +214,119 @@
     <t xml:space="preserve">Prix  unitaire d'un  produit et commande </t>
   </si>
   <si>
-    <t>Mamadou Sy,  John Mark</t>
-  </si>
-  <si>
     <t>customerB@example.com</t>
+  </si>
+  <si>
+    <t>Med , Sidi</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>Identifiant unique du produit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Entité : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PurchaseOrder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Entité :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Product</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Entité :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Customer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Entite :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> OrderDetail</t>
+    </r>
+  </si>
+  <si>
+    <t>NON  NULL</t>
+  </si>
+  <si>
+    <t>Unique et NON  NULL</t>
+  </si>
+  <si>
+    <t>Unique, NON  NULL</t>
+  </si>
+  <si>
+    <t>purchaseOrders</t>
+  </si>
+  <si>
+    <t>orderDetails</t>
+  </si>
+  <si>
+    <t>Clé primaire, Auto_Increment</t>
   </si>
 </sst>
 </file>
@@ -266,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -314,6 +384,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -433,7 +516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -444,7 +527,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -453,9 +535,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -481,7 +560,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1738,16 +1825,16 @@
   </sheetPr>
   <dimension ref="B2:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.109375" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" customWidth="1"/>
@@ -1755,181 +1842,182 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1">
       <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1">
       <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>25</v>
-      </c>
       <c r="I6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" customHeight="1">
       <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E8" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="G8" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>35</v>
-      </c>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H5" r:id="rId1" display="Mamadou Sy,  John Mark" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="H7" r:id="rId2" xr:uid="{8FD89219-42DC-4D4C-8548-598082F39CC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1941,8 +2029,8 @@
   </sheetPr>
   <dimension ref="B3:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1950,179 +2038,179 @@
     <col min="2" max="2" width="20.21875" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="45" customWidth="1"/>
+    <col min="8" max="8" width="51.109375" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B6" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="G8" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="I8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B7" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E9" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G9" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B8" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="I9" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2140,17 +2228,17 @@
   </sheetPr>
   <dimension ref="B3:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="92.6640625" customWidth="1"/>
+    <col min="3" max="3" width="77.5546875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
     <col min="7" max="7" width="18.21875" customWidth="1"/>
     <col min="8" max="8" width="25.109375" customWidth="1"/>
     <col min="9" max="9" width="19.88671875" customWidth="1"/>
@@ -2159,8 +2247,8 @@
     <row r="3" spans="2:9" ht="15.75" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="17" t="s">
-        <v>55</v>
+      <c r="D3" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
@@ -2170,132 +2258,132 @@
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>56</v>
+      <c r="I5" s="32" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B6" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>40</v>
+      <c r="B6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>72</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="18">
+        <v>49</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="16">
         <v>45394</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>56</v>
+      <c r="I6" s="32" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>72</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>56</v>
+        <v>16</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B8" s="11" t="s">
-        <v>64</v>
+      <c r="B8" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="20">
+        <v>10</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="18">
         <v>2</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>56</v>
+      <c r="I8" s="32" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2313,8 +2401,8 @@
   </sheetPr>
   <dimension ref="B3:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2322,7 +2410,7 @@
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="74.21875" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.5546875" customWidth="1"/>
     <col min="8" max="8" width="18.21875" customWidth="1"/>
@@ -2330,171 +2418,171 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>68</v>
+      <c r="I5" s="32" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B6" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>70</v>
+      <c r="B6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="23">
+        <v>10</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="21">
         <v>25</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>68</v>
+      <c r="I6" s="32" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B7" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>72</v>
+      <c r="B7" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="24">
+        <v>10</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="22">
         <v>2</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>68</v>
+      <c r="I7" s="32" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B8" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>74</v>
+      <c r="B8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="24">
         <v>10</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>68</v>
+      <c r="E8" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="22">
+        <v>10</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>75</v>
+      <c r="B9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="15">
+        <v>43</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="14">
         <v>12000</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>68</v>
+      <c r="I9" s="32" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/dictionnaire-donnes-abc-cooperation.xlsx
+++ b/dictionnaire-donnes-abc-cooperation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formation_Simplon\developpement_web\evaluation_competences_projet\Brief-5\project-abc-cooperation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB3BF3-D8B2-4683-9769-1B6507E4910A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4564D9FF-A982-4CF7-9185-D16E30844EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customers" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
   <si>
     <t>Nom du Champ</t>
   </si>
@@ -163,9 +163,6 @@
     <t>120.00</t>
   </si>
   <si>
-    <t>order_date</t>
-  </si>
-  <si>
     <t>Date de la commande</t>
   </si>
   <si>
@@ -218,12 +215,6 @@
   </si>
   <si>
     <t>Med , Sidi</t>
-  </si>
-  <si>
-    <t>customer_name</t>
-  </si>
-  <si>
-    <t>product_name</t>
   </si>
   <si>
     <t>Identifiant unique du produit</t>
@@ -320,13 +311,19 @@
     <t>Unique, NON  NULL</t>
   </si>
   <si>
-    <t>purchaseOrders</t>
-  </si>
-  <si>
-    <t>orderDetails</t>
-  </si>
-  <si>
     <t>Clé primaire, Auto_Increment</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>orderdetails</t>
+  </si>
+  <si>
+    <t>purchaseorders</t>
   </si>
 </sst>
 </file>
@@ -432,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -511,12 +508,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9BC2E6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -538,7 +544,6 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -569,6 +574,15 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1826,7 +1840,7 @@
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1842,16 +1856,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -1889,14 +1903,14 @@
       <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>77</v>
+      <c r="E4" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>72</v>
+      <c r="G4" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>12</v>
@@ -1907,7 +1921,7 @@
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>14</v>
@@ -1915,17 +1929,17 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>72</v>
+      <c r="E5" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>64</v>
+      <c r="G5" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>13</v>
@@ -1941,16 +1955,16 @@
       <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>72</v>
+      <c r="E6" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="23" t="s">
+      <c r="G6" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="7" t="s">
@@ -1967,17 +1981,17 @@
       <c r="D7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>73</v>
+      <c r="E7" s="31" t="s">
+        <v>70</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>63</v>
+      <c r="G7" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>13</v>
@@ -1993,16 +2007,16 @@
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>74</v>
+      <c r="E8" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="7" t="s">
@@ -2029,8 +2043,8 @@
   </sheetPr>
   <dimension ref="B3:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2046,16 +2060,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -2087,20 +2101,20 @@
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>67</v>
+      <c r="C5" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>77</v>
+      <c r="E5" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>72</v>
+      <c r="G5" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>12</v>
@@ -2110,8 +2124,8 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B6" s="31" t="s">
-        <v>66</v>
+      <c r="B6" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>31</v>
@@ -2119,14 +2133,14 @@
       <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>72</v>
+      <c r="E6" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="33" t="s">
-        <v>72</v>
+      <c r="G6" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>32</v>
@@ -2145,14 +2159,14 @@
       <c r="D7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>72</v>
+      <c r="E7" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>72</v>
+      <c r="G7" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>36</v>
@@ -2162,54 +2176,54 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>40</v>
+      <c r="B8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="B9" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="38" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2228,8 +2242,8 @@
   </sheetPr>
   <dimension ref="B3:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2247,8 +2261,8 @@
     <row r="3" spans="2:9" ht="15.75" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="29" t="s">
-        <v>68</v>
+      <c r="D3" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
@@ -2292,98 +2306,98 @@
       <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>77</v>
+      <c r="E5" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>72</v>
+      <c r="G5" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="32" t="s">
-        <v>75</v>
+      <c r="I5" s="31" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1">
       <c r="B6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>72</v>
+      <c r="G6" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="H6" s="16">
         <v>45394</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>75</v>
+      <c r="I6" s="31" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>51</v>
+      <c r="B7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>75</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="17">
+        <v>2</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="18">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>75</v>
+      <c r="B8" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2401,8 +2415,8 @@
   </sheetPr>
   <dimension ref="B3:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2418,16 +2432,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -2460,103 +2474,103 @@
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>77</v>
+      <c r="E5" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>72</v>
+      <c r="G5" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="32" t="s">
-        <v>76</v>
+      <c r="I5" s="31" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="21">
+      <c r="G6" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="20">
         <v>25</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>76</v>
+      <c r="I6" s="31" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="22">
+      <c r="G7" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="21">
         <v>2</v>
       </c>
-      <c r="I7" s="32" t="s">
-        <v>76</v>
+      <c r="I7" s="31" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="G8" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="21">
         <v>10</v>
       </c>
-      <c r="I8" s="32" t="s">
-        <v>76</v>
+      <c r="I8" s="31" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1">
@@ -2564,25 +2578,25 @@
         <v>41</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>72</v>
+      <c r="E9" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>72</v>
+      <c r="G9" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="H9" s="14">
         <v>12000</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>76</v>
+      <c r="I9" s="31" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/dictionnaire-donnes-abc-cooperation.xlsx
+++ b/dictionnaire-donnes-abc-cooperation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formation_Simplon\developpement_web\evaluation_competences_projet\Brief-5\project-abc-cooperation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4564D9FF-A982-4CF7-9185-D16E30844EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5512C72A-A197-4E8D-837F-F5C3BC58B57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customers" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
   <si>
     <t>Nom du Champ</t>
   </si>
@@ -305,12 +305,6 @@
     <t>NON  NULL</t>
   </si>
   <si>
-    <t>Unique et NON  NULL</t>
-  </si>
-  <si>
-    <t>Unique, NON  NULL</t>
-  </si>
-  <si>
     <t>Clé primaire, Auto_Increment</t>
   </si>
   <si>
@@ -320,10 +314,19 @@
     <t>date</t>
   </si>
   <si>
-    <t>orderdetails</t>
-  </si>
-  <si>
-    <t>purchaseorders</t>
+    <t>purchase_orders</t>
+  </si>
+  <si>
+    <t>order_details</t>
+  </si>
+  <si>
+    <t>NOT  NULL</t>
+  </si>
+  <si>
+    <t>Unique et NOT  NULL</t>
+  </si>
+  <si>
+    <t>Unique, NOT NULL</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -575,12 +578,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1839,8 +1839,8 @@
   </sheetPr>
   <dimension ref="B2:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1904,13 +1904,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>12</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>14</v>
@@ -1930,13 +1930,13 @@
         <v>15</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>63</v>
@@ -1956,13 +1956,13 @@
         <v>19</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>20</v>
@@ -1982,13 +1982,13 @@
         <v>15</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H7" s="25" t="s">
         <v>62</v>
@@ -2008,13 +2008,13 @@
         <v>26</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H8" s="23" t="s">
         <v>28</v>
@@ -2044,7 +2044,7 @@
   <dimension ref="B3:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2108,13 +2108,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>12</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1">
       <c r="B6" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>31</v>
@@ -2134,13 +2134,13 @@
         <v>19</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>32</v>
@@ -2160,13 +2160,13 @@
         <v>35</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>36</v>
@@ -2186,13 +2186,13 @@
         <v>43</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>45</v>
@@ -2211,19 +2211,19 @@
       <c r="D9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>69</v>
+      <c r="E9" s="33" t="s">
+        <v>75</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="37" t="s">
-        <v>69</v>
+      <c r="G9" s="32" t="s">
+        <v>75</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2242,8 +2242,8 @@
   </sheetPr>
   <dimension ref="B3:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2307,7 +2307,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>11</v>
@@ -2319,12 +2319,12 @@
         <v>12</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1">
       <c r="B6" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>46</v>
@@ -2333,7 +2333,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>48</v>
@@ -2345,7 +2345,7 @@
         <v>45394</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" customHeight="1">
@@ -2359,7 +2359,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>39</v>
@@ -2371,33 +2371,33 @@
         <v>2</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>69</v>
+      <c r="E8" s="33" t="s">
+        <v>75</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="40" t="s">
         <v>51</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2415,8 +2415,8 @@
   </sheetPr>
   <dimension ref="B3:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2480,19 +2480,19 @@
         <v>10</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1">
@@ -2506,19 +2506,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H6" s="20">
         <v>25</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" customHeight="1">
@@ -2532,19 +2532,19 @@
         <v>10</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H7" s="21">
         <v>2</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1">
@@ -2558,19 +2558,19 @@
         <v>10</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H8" s="21">
         <v>10</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1">
@@ -2584,19 +2584,19 @@
         <v>43</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H9" s="14">
         <v>12000</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
